--- a/Technology/Hardware/Allegro Microsystems.xlsx
+++ b/Technology/Hardware/Allegro Microsystems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86283254-15C1-AF43-8B08-53E849D1E59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59047B-6C27-5342-B9F6-B6A761019458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2217,11 +2217,11 @@
     <v>Powered by Refinitiv</v>
     <v>48.719900000000003</v>
     <v>19.202200000000001</v>
-    <v>1.631</v>
-    <v>-0.21</v>
-    <v>-5.0160000000000005E-3</v>
-    <v>-0.16</v>
-    <v>-3.8409999999999998E-3</v>
+    <v>1.61</v>
+    <v>0.37</v>
+    <v>9.4970000000000002E-3</v>
+    <v>0.33</v>
+    <v>8.3909999999999992E-3</v>
     <v>USD</v>
     <v>Allegro MicroSystems, Inc. is a global designer, developer, manufacturer, and marketer of sensor integrated circuits (ICs) and application-specific analog power ICs enabling the technologies in the automotive and industrial markets. The Company is a supplier of magnetic sensor IC solutions. It focuses on providing IC solutions to sense, regulate and drive a variety of mechanical systems. This includes sensing the angular or linear position of a shaft or actuator, driving an electric motor or actuator, and regulating the power applied to sensing and driving circuits. Its sensor ICs enable its customers to measure motion, speed, position and current, while its power ICs include high-temperature and high-voltage capable motor driver, power management and light emitting diode (LED) driver ICs. Its photonics portfolio provides eye-safe distance measurement and three-dimensional (3D) imaging solutions. It sells magnetic sensor ICs, power ICs and photonics in the Americas, EMEA and Asia.</v>
     <v>4036</v>
@@ -2229,25 +2229,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>955 Perimeter Road, MANCHESTER, NH, 03103 US</v>
-    <v>42.11</v>
+    <v>39.69</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.944106573435</v>
+    <v>45068.84518362266</v>
     <v>0</v>
-    <v>41.33</v>
-    <v>7978234000</v>
+    <v>38.75</v>
+    <v>7541696619</v>
     <v>ALLEGRO MICROSYSTEMS, INC</v>
     <v>ALLEGRO MICROSYSTEMS, INC</v>
-    <v>41.51</v>
-    <v>53.5456</v>
-    <v>41.87</v>
-    <v>41.66</v>
-    <v>41.5</v>
-    <v>191508300</v>
+    <v>38.83</v>
+    <v>40.276600000000002</v>
+    <v>38.96</v>
+    <v>39.33</v>
+    <v>39.659999999999997</v>
+    <v>191754300</v>
     <v>ALGM</v>
     <v>ALLEGRO MICROSYSTEMS, INC (XNAS:ALGM)</v>
-    <v>1619052</v>
-    <v>1327527</v>
+    <v>950503</v>
+    <v>1968016</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2835,10 +2835,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,15 +3344,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>10.379216677030835</v>
+        <v>9.8113070287273931</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>66.815463080053931</v>
+        <v>63.159585443064479</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>92.567805262913637</v>
+        <v>87.502861407620557</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.631</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.11116455000000001</v>
+        <v>0.11026050000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>5.1690290195828071E-3</v>
+        <v>5.466593251640648E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7978234000</v>
+        <v>7541696619</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99483097098041717</v>
+        <v>0.99453340674835933</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>8019688000</v>
+        <v>7583150619</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.11070189368527586</v>
+        <v>0.10977615213574754</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="46">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>1965114265.9755785</v>
+        <v>1986572988.5025394</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="J108" s="46">
         <f>J107+J106</f>
-        <v>2129420621.0019765</v>
+        <v>2150879343.5289373</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>0.11070189368527586</v>
+        <v>0.10977615213574754</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1625966349.7565711</v>
+        <v>1644750392.4771559</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>1866895349.7565711</v>
+        <v>1885679392.4771559</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>9.4163732511420779</v>
+        <v>9.5111174784740964</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>41.66</v>
+        <v>39.33</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.77397087731296021</v>
+        <v>-0.75817143456714731</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Allegro Microsystems.xlsx
+++ b/Technology/Hardware/Allegro Microsystems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A59047B-6C27-5342-B9F6-B6A761019458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13CA70A-69B1-C840-8D4C-86E75AB3BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2217,37 +2217,35 @@
     <v>Powered by Refinitiv</v>
     <v>48.719900000000003</v>
     <v>19.202200000000001</v>
-    <v>1.61</v>
-    <v>0.37</v>
-    <v>9.4970000000000002E-3</v>
-    <v>0.33</v>
-    <v>8.3909999999999992E-3</v>
+    <v>1.6</v>
+    <v>0.95</v>
+    <v>2.3069000000000003E-2</v>
     <v>USD</v>
-    <v>Allegro MicroSystems, Inc. is a global designer, developer, manufacturer, and marketer of sensor integrated circuits (ICs) and application-specific analog power ICs enabling the technologies in the automotive and industrial markets. The Company is a supplier of magnetic sensor IC solutions. It focuses on providing IC solutions to sense, regulate and drive a variety of mechanical systems. This includes sensing the angular or linear position of a shaft or actuator, driving an electric motor or actuator, and regulating the power applied to sensing and driving circuits. Its sensor ICs enable its customers to measure motion, speed, position and current, while its power ICs include high-temperature and high-voltage capable motor driver, power management and light emitting diode (LED) driver ICs. Its photonics portfolio provides eye-safe distance measurement and three-dimensional (3D) imaging solutions. It sells magnetic sensor ICs, power ICs and photonics in the Americas, EMEA and Asia.</v>
-    <v>4036</v>
+    <v>Allegro MicroSystems, Inc. is a global designer, developer, manufacturer and marketer of sensor integrated circuits (ICs) and application-specific analog power ICs enabling emerging technologies in the automotive and industrial markets. Its product portfolio provides solutions for the electrification of vehicles, automotive advanced driver assistance systems (ADAS) safety features, automation for Industry 4.0 and power saving technologies for data centers and green energy applications. Its sensor ICs enable its customers to measure motion, speed, position and current, while its power ICs include high-temperature and high-voltage capable motor drivers, power management ICs, light emitting diode (LED) driver ICs and isolated gate drivers. Its portfolio includes more than 1,000 products, and it ships over 1.5 billion units annually to more than 10,000 customers around the world. It supports customers through design and application centers located in North America, South America and other.</v>
+    <v>4687</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>955 Perimeter Road, MANCHESTER, NH, 03103 US</v>
-    <v>39.69</v>
+    <v>42.66</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45068.84518362266</v>
+    <v>45099.993079258595</v>
     <v>0</v>
-    <v>38.75</v>
-    <v>7541696619</v>
+    <v>40.96</v>
+    <v>8078722410</v>
     <v>ALLEGRO MICROSYSTEMS, INC</v>
     <v>ALLEGRO MICROSYSTEMS, INC</v>
-    <v>38.83</v>
-    <v>40.276600000000002</v>
-    <v>38.96</v>
-    <v>39.33</v>
-    <v>39.659999999999997</v>
-    <v>191754300</v>
+    <v>41</v>
+    <v>43.553800000000003</v>
+    <v>41.18</v>
+    <v>42.13</v>
+    <v>41.84</v>
+    <v>191757000</v>
     <v>ALGM</v>
     <v>ALLEGRO MICROSYSTEMS, INC (XNAS:ALGM)</v>
-    <v>950503</v>
-    <v>1968016</v>
+    <v>2657</v>
+    <v>1409309</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2279,8 +2277,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2318,7 +2314,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2336,9 +2332,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2405,8 +2399,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2415,8 +2407,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2462,8 +2452,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2472,8 +2460,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2835,10 +2821,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,15 +3330,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>9.8113070287273931</v>
+        <v>10.509946232082781</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>63.159585443064479</v>
+        <v>67.657025216277106</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>87.502861407620557</v>
+        <v>93.733726388824437</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4794,7 +4780,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4841,7 +4827,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.11026050000000001</v>
+        <v>0.10983000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4910,7 +4896,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>5.466593251640648E-3</v>
+        <v>5.1050615044458125E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4934,7 +4920,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7541696619</v>
+        <v>8078722410</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4958,7 +4944,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99453340674835933</v>
+        <v>0.99489493849555422</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4982,7 +4968,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>7583150619</v>
+        <v>8120176410</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5020,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10977615213574754</v>
+        <v>0.10937988208690687</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5096,7 +5082,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="46">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>1986572988.5025394</v>
+        <v>1995902456.0925593</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5127,7 +5113,7 @@
       </c>
       <c r="J108" s="46">
         <f>J107+J106</f>
-        <v>2150879343.5289373</v>
+        <v>2160208811.1189575</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5137,7 +5123,7 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>0.10977615213574754</v>
+        <v>0.10937988208690687</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5152,7 +5138,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1644750392.4771559</v>
+        <v>1652918068.622721</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5179,7 +5165,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>1885679392.4771559</v>
+        <v>1893847068.622721</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5197,7 +5183,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>9.5111174784740964</v>
+        <v>9.5523141567941305</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5206,7 +5192,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>39.33</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5215,7 +5201,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.75817143456714731</v>
+        <v>-0.77326574515086333</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Allegro Microsystems.xlsx
+++ b/Technology/Hardware/Allegro Microsystems.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13CA70A-69B1-C840-8D4C-86E75AB3BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C69ED-7D28-D349-9367-27344FE906A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -861,19 +887,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -888,12 +901,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,61 +960,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1012,24 +993,74 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,11 +1320,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1333,7 +1364,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2058,13 +2089,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1587499</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>31749</xdr:rowOff>
@@ -2093,6 +2124,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2215,11 +2300,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>48.719900000000003</v>
-    <v>19.202200000000001</v>
-    <v>1.6</v>
-    <v>0.95</v>
-    <v>2.3069000000000003E-2</v>
+    <v>53.05</v>
+    <v>19.8</v>
+    <v>1.63</v>
+    <v>1.65</v>
+    <v>3.4460999999999999E-2</v>
+    <v>-1.03</v>
+    <v>-2.0794999999999998E-2</v>
     <v>USD</v>
     <v>Allegro MicroSystems, Inc. is a global designer, developer, manufacturer and marketer of sensor integrated circuits (ICs) and application-specific analog power ICs enabling emerging technologies in the automotive and industrial markets. Its product portfolio provides solutions for the electrification of vehicles, automotive advanced driver assistance systems (ADAS) safety features, automation for Industry 4.0 and power saving technologies for data centers and green energy applications. Its sensor ICs enable its customers to measure motion, speed, position and current, while its power ICs include high-temperature and high-voltage capable motor drivers, power management ICs, light emitting diode (LED) driver ICs and isolated gate drivers. Its portfolio includes more than 1,000 products, and it ships over 1.5 billion units annually to more than 10,000 customers around the world. It supports customers through design and application centers located in North America, South America and other.</v>
     <v>4687</v>
@@ -2227,25 +2314,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>955 Perimeter Road, MANCHESTER, NH, 03103 US</v>
-    <v>42.66</v>
+    <v>49.59</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.993079258595</v>
+    <v>45132.977957476563</v>
     <v>0</v>
-    <v>40.96</v>
-    <v>8078722410</v>
+    <v>48.11</v>
+    <v>9520091958</v>
     <v>ALLEGRO MICROSYSTEMS, INC</v>
     <v>ALLEGRO MICROSYSTEMS, INC</v>
-    <v>41</v>
-    <v>43.553800000000003</v>
-    <v>41.18</v>
-    <v>42.13</v>
-    <v>41.84</v>
-    <v>191757000</v>
+    <v>48.15</v>
+    <v>51.203899999999997</v>
+    <v>47.88</v>
+    <v>49.53</v>
+    <v>48.5</v>
+    <v>192208600</v>
     <v>ALGM</v>
     <v>ALLEGRO MICROSYSTEMS, INC (XNAS:ALGM)</v>
-    <v>2657</v>
-    <v>1409309</v>
+    <v>1348511</v>
+    <v>1597927</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2277,6 +2364,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2314,7 +2403,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2332,7 +2421,9 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2399,14 +2490,18 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2452,6 +2547,8 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2460,6 +2557,8 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2818,23 +2917,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G132" sqref="G132"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="5" width="15" customWidth="1"/>
-    <col min="6" max="14" width="21" customWidth="1"/>
+    <col min="2" max="6" width="15" customWidth="1"/>
+    <col min="7" max="15" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2850,55 +2949,61 @@
       <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="8">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="24">
         <v>2023</v>
       </c>
-      <c r="G1" s="28">
+      <c r="H1" s="24">
         <v>2024</v>
       </c>
-      <c r="H1" s="28">
+      <c r="I1" s="24">
         <v>2025</v>
       </c>
-      <c r="I1" s="28">
+      <c r="J1" s="24">
         <v>2026</v>
       </c>
-      <c r="J1" s="28">
+      <c r="K1" s="24">
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:38" ht="40" x14ac:dyDescent="0.25">
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:39" ht="40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2914,37 +3019,40 @@
       <c r="E3" s="1">
         <v>768674000</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="1">
+        <v>973700000</v>
+      </c>
+      <c r="G3" s="25">
         <v>969200000</v>
       </c>
-      <c r="G3" s="29">
+      <c r="H3" s="25">
         <v>1070000000</v>
       </c>
-      <c r="H3" s="29">
+      <c r="I3" s="25">
         <v>1169000000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="J3" s="25">
         <v>1304000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="K3" s="25">
         <v>1455000000</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2959,43 +3067,46 @@
         <f>(E3/D3)-1</f>
         <v>0.30017743362307958</v>
       </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
+      <c r="F4" s="15">
+        <f>(F3/E3)-1</f>
+        <v>0.26672685689902353</v>
+      </c>
+      <c r="G4" s="16">
+        <f>(G3/E3)-1</f>
         <v>0.26087261960206787</v>
       </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:K4" si="0">(H3/G3)-1</f>
         <v>0.10400330169211713</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="16">
         <f t="shared" si="0"/>
         <v>9.2523364485981308E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <f t="shared" si="0"/>
         <v>0.11548331907613352</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <f t="shared" si="0"/>
         <v>0.11579754601226999</v>
       </c>
-      <c r="K4" s="17">
+      <c r="L4" s="17">
         <f>(E4+D4+C4)/3</f>
         <v>3.5709862161616236E-2</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <f>(E20+D20+C20)/3</f>
         <v>0.66945882562770398</v>
       </c>
-      <c r="M4" s="17">
+      <c r="N4" s="17">
         <f>(E29+D29+C29)/3</f>
         <v>1.5243518778002612</v>
       </c>
-      <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+      <c r="O4" s="17">
+        <f>(E106+D106+C106)/3</f>
         <v>0.6270734397956651</v>
       </c>
-      <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -3008,12 +3119,13 @@
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
-      <c r="AI4" s="18"/>
+      <c r="AG4" s="16"/>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="18"/>
-    </row>
-    <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+      <c r="AM4" s="18"/>
+    </row>
+    <row r="5" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -3029,8 +3141,9 @@
       <c r="E5" s="1">
         <v>361214000</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3046,20 +3159,21 @@
       <c r="E6" s="10">
         <v>407460000</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="F6" s="10"/>
+      <c r="L6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -3075,24 +3189,25 @@
       <c r="E7" s="2">
         <v>0.53010000000000002</v>
       </c>
-      <c r="K7" s="17">
+      <c r="F7" s="2"/>
+      <c r="L7" s="17">
         <f>E7</f>
         <v>0.53010000000000002</v>
       </c>
-      <c r="L7" s="21">
+      <c r="M7" s="21">
         <f>E21</f>
         <v>0.24740000000000001</v>
       </c>
-      <c r="M7" s="21">
+      <c r="N7" s="21">
         <f>E30</f>
         <v>0.15529999999999999</v>
       </c>
-      <c r="N7" s="21">
-        <f>E106/E3</f>
+      <c r="O7" s="21">
+        <f>E107/E3</f>
         <v>0.11212555647777861</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3108,10 +3223,11 @@
       <c r="E8" s="1">
         <v>121873000</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3131,20 +3247,21 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="K9" s="19" t="s">
+      <c r="H9" s="15"/>
+      <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -3155,46 +3272,48 @@
         <v>106396000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="17">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="L10" s="17">
         <f>E9</f>
         <v>0.15854965824263603</v>
       </c>
-      <c r="L10" s="21">
+      <c r="M10" s="21">
         <f>E13</f>
         <v>0.19636022553123952</v>
       </c>
-      <c r="M10" s="21">
+      <c r="N10" s="21">
         <f>E80</f>
         <v>4.3643989519614297E-2</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="21">
         <f>E89</f>
         <v>9.0989157952526045E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3205,27 +3324,28 @@
         <v>106396000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1">
         <v>150937000</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="F12" s="1"/>
+      <c r="L12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3245,41 +3365,43 @@
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="K13" s="17">
+      <c r="H13" s="15"/>
+      <c r="L13" s="17">
         <f>E28/E72</f>
         <v>0.16263397107355282</v>
       </c>
-      <c r="L13" s="21">
+      <c r="M13" s="21">
         <f>E28/E54</f>
         <v>0.1337713696757859</v>
       </c>
-      <c r="M13" s="21">
+      <c r="N13" s="21">
         <f>E22/(E72+E56+E61)</f>
         <v>0.17617232270283023</v>
       </c>
-      <c r="N13" s="22">
+      <c r="O13" s="22">
         <f>E67/E72</f>
         <v>0.21418618999818853</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1">
         <v>153476000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3295,20 +3417,21 @@
       <c r="E15" s="1">
         <v>272810000</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="F15" s="1"/>
+      <c r="L15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3324,24 +3447,25 @@
       <c r="E16" s="1">
         <v>634024000</v>
       </c>
-      <c r="K16" s="30">
+      <c r="F16" s="1"/>
+      <c r="L16" s="26">
         <f>(E35+D35+C35+B35)/4</f>
         <v>6.7246812404317732E-3</v>
       </c>
-      <c r="L16" s="31">
-        <f>M101/E3</f>
-        <v>10.509946232082781</v>
-      </c>
-      <c r="M16" s="31">
-        <f>M101/E28</f>
-        <v>67.657025216277106</v>
-      </c>
-      <c r="N16" s="32">
-        <f>M101/E106</f>
-        <v>93.733726388824437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="M16" s="43">
+        <f>N101/E3</f>
+        <v>12.385083869104458</v>
+      </c>
+      <c r="N16" s="43">
+        <f>N101/E28</f>
+        <v>79.728089291247585</v>
+      </c>
+      <c r="O16" s="45">
+        <f>N101/E107</f>
+        <v>110.45727894834548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3357,8 +3481,9 @@
       <c r="E17" s="1">
         <v>1057000</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3374,11 +3499,21 @@
       <c r="E18" s="1">
         <v>48527000</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="L18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3394,14 +3529,42 @@
       <c r="E19" s="10">
         <v>190182000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="F19" s="10"/>
+      <c r="G19" s="48">
+        <v>5240000000</v>
+      </c>
+      <c r="H19" s="48">
+        <v>5680000000</v>
+      </c>
+      <c r="I19" s="48">
+        <v>5921000000</v>
+      </c>
+      <c r="J19" s="48">
+        <v>6332000000</v>
+      </c>
+      <c r="K19" s="48">
+        <v>6933000000</v>
+      </c>
+      <c r="L19" s="27">
         <f>E40-E56-E61</f>
         <v>240929000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="43">
+        <f>N101/G3</f>
+        <v>9.8226289290136197</v>
+      </c>
+      <c r="N19" s="44">
+        <f>H116/G31</f>
+        <v>3.6935123042505595</v>
+      </c>
+      <c r="O19" s="45">
+        <f>N101/G106</f>
+        <v>2.5709133021874155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3416,8 +3579,29 @@
         <f>(E19/D19)-1</f>
         <v>2.8567865182210865</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <f>(G19/E19)-1</f>
+        <v>26.5525549210756</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20:K20" si="3">(H19/G19)-1</f>
+        <v>8.3969465648854991E-2</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>4.2429577464788704E-2</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.9413950346225217E-2</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.4914718888186922E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3433,8 +3617,35 @@
       <c r="E21" s="2">
         <v>0.24740000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="49">
+        <f>G19/G3</f>
+        <v>5.4065208419314903</v>
+      </c>
+      <c r="H21" s="49">
+        <f t="shared" ref="H21:K21" si="4">H19/H3</f>
+        <v>5.3084112149532707</v>
+      </c>
+      <c r="I21" s="49">
+        <f t="shared" si="4"/>
+        <v>5.0650128314798977</v>
+      </c>
+      <c r="J21" s="49">
+        <f t="shared" si="4"/>
+        <v>4.8558282208588954</v>
+      </c>
+      <c r="K21" s="49">
+        <f t="shared" si="4"/>
+        <v>4.7649484536082474</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3450,8 +3661,17 @@
       <c r="E22" s="10">
         <v>136650000</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+      <c r="N22" s="46">
+        <f>E98/N101</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="47">
+        <f>E107/N101</f>
+        <v>9.0532738948570571E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3467,8 +3687,9 @@
       <c r="E23" s="2">
         <v>0.17780000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3484,8 +3705,9 @@
       <c r="E24" s="1">
         <v>4096000</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3501,8 +3723,9 @@
       <c r="E25" s="10">
         <v>140746000</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3518,8 +3741,9 @@
       <c r="E26" s="2">
         <v>0.18310000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3535,8 +3759,9 @@
       <c r="E27" s="1">
         <v>21191000</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3552,10 +3777,26 @@
       <c r="E28" s="11">
         <v>119407000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="11"/>
+      <c r="G28" s="50">
+        <v>3482000000</v>
+      </c>
+      <c r="H28" s="50">
+        <v>3732000000</v>
+      </c>
+      <c r="I28" s="50">
+        <v>3960000000</v>
+      </c>
+      <c r="J28" s="50">
+        <v>4364000000</v>
+      </c>
+      <c r="K28" s="50">
+        <v>4822000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3570,8 +3811,29 @@
         <f>(E28/D28)-1</f>
         <v>5.6510889544922858</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="15"/>
+      <c r="G29" s="16">
+        <f>(G28/E28)-1</f>
+        <v>28.160769469126599</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" ref="H29:K29" si="5">(H28/G28)-1</f>
+        <v>7.179781734635271E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>6.1093247588424493E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10202020202020212</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10494958753437222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3587,8 +3849,29 @@
       <c r="E30" s="2">
         <v>0.15529999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="2"/>
+      <c r="G30" s="51">
+        <f>G28/G3</f>
+        <v>3.5926537350392076</v>
+      </c>
+      <c r="H30" s="51">
+        <f t="shared" ref="H30:K30" si="6">H28/H3</f>
+        <v>3.4878504672897197</v>
+      </c>
+      <c r="I30" s="51">
+        <f t="shared" si="6"/>
+        <v>3.3875106928999146</v>
+      </c>
+      <c r="J30" s="51">
+        <f t="shared" si="6"/>
+        <v>3.3466257668711656</v>
+      </c>
+      <c r="K30" s="51">
+        <f t="shared" si="6"/>
+        <v>3.314089347079038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3604,8 +3887,24 @@
       <c r="E31" s="12">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="12"/>
+      <c r="G31" s="52">
+        <v>13.41</v>
+      </c>
+      <c r="H31" s="52">
+        <v>14.37</v>
+      </c>
+      <c r="I31" s="52">
+        <v>15.25</v>
+      </c>
+      <c r="J31" s="52">
+        <v>16.8</v>
+      </c>
+      <c r="K31" s="52">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3621,8 +3920,9 @@
       <c r="E32" s="12">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3638,8 +3938,9 @@
       <c r="E33" s="1">
         <v>189748427</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3655,10 +3956,11 @@
       <c r="E34" s="1">
         <v>191811205</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3666,49 +3968,52 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="7">(D34-C34)/C34</f>
         <v>-6.0363789298194352E-2</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.7262514259921445E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -3724,25 +4029,27 @@
       <c r="E38" s="1">
         <v>282383000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -3758,8 +4065,9 @@
       <c r="E40" s="1">
         <v>282383000</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -3775,8 +4083,9 @@
       <c r="E41" s="1">
         <v>120738000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -3792,8 +4101,9 @@
       <c r="E42" s="1">
         <v>86160000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -3809,8 +4119,9 @@
       <c r="E43" s="1">
         <v>22411000</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -3826,8 +4137,9 @@
       <c r="E44" s="10">
         <v>511692000</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -3843,8 +4155,9 @@
       <c r="E45" s="1">
         <v>226077000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -3860,8 +4173,9 @@
       <c r="E46" s="1">
         <v>20009000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -3877,8 +4191,9 @@
       <c r="E47" s="1">
         <v>35970000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -3894,16 +4209,17 @@
       <c r="E48" s="1">
         <v>55979000</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1">
         <v>26664000</v>
@@ -3911,8 +4227,9 @@
       <c r="E49" s="1">
         <v>40017000</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
@@ -3928,8 +4245,9 @@
       <c r="E50" s="1">
         <v>17967000</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>43</v>
       </c>
@@ -3945,8 +4263,9 @@
       <c r="E51" s="1">
         <v>40888000</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -3962,25 +4281,27 @@
       <c r="E52" s="1">
         <v>380928000</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>46</v>
       </c>
@@ -3996,8 +4317,9 @@
       <c r="E54" s="11">
         <v>892620000</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>47</v>
       </c>
@@ -4013,8 +4335,9 @@
       <c r="E55" s="1">
         <v>29836000</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>48</v>
       </c>
@@ -4025,13 +4348,14 @@
         <v>68000000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>3706000</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>49</v>
       </c>
@@ -4047,25 +4371,27 @@
       <c r="E57" s="1">
         <v>1831000</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>51</v>
       </c>
@@ -4081,8 +4407,9 @@
       <c r="E59" s="1">
         <v>68850000</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -4098,8 +4425,9 @@
       <c r="E60" s="10">
         <v>104223000</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -4115,25 +4443,27 @@
       <c r="E61" s="1">
         <v>37748000</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -4149,8 +4479,9 @@
       <c r="E63" s="1">
         <v>2757000</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -4166,8 +4497,9 @@
       <c r="E64" s="1">
         <v>12529000</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
@@ -4183,25 +4515,27 @@
       <c r="E65" s="1">
         <v>53034000</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>58</v>
       </c>
@@ -4217,8 +4551,9 @@
       <c r="E67" s="10">
         <v>157257000</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>59</v>
       </c>
@@ -4234,8 +4569,9 @@
       <c r="E68" s="1">
         <v>1905000</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>60</v>
       </c>
@@ -4251,8 +4587,9 @@
       <c r="E69" s="1">
         <v>122958000</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
@@ -4268,8 +4605,9 @@
       <c r="E70" s="1">
         <v>-18448000</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>62</v>
       </c>
@@ -4285,8 +4623,9 @@
       <c r="E71" s="1">
         <v>627792000</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>63</v>
       </c>
@@ -4302,8 +4641,9 @@
       <c r="E72" s="10">
         <v>734207000</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>64</v>
       </c>
@@ -4319,42 +4659,45 @@
       <c r="E73" s="11">
         <v>891464000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>66</v>
       </c>
@@ -4370,8 +4713,9 @@
       <c r="E76" s="1">
         <v>119407000</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>13</v>
       </c>
@@ -4387,8 +4731,9 @@
       <c r="E77" s="1">
         <v>48527000</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>67</v>
       </c>
@@ -4404,8 +4749,9 @@
       <c r="E78" s="1">
         <v>7498000</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>68</v>
       </c>
@@ -4421,29 +4767,31 @@
       <c r="E79" s="1">
         <v>33548000</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="8">B79/B3</f>
         <v>1.9894768959742432E-3</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.2073900650526313E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4352857797691846E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.3643989519614297E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>69</v>
       </c>
@@ -4459,8 +4807,9 @@
       <c r="E81" s="1">
         <v>-53326000</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>70</v>
       </c>
@@ -4476,8 +4825,9 @@
       <c r="E82" s="1">
         <v>-18347000</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4493,12 +4843,13 @@
       <c r="E83" s="1">
         <v>-4471000</v>
       </c>
-      <c r="L83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="M83" s="63"/>
-    </row>
-    <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+      <c r="M83" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" s="56"/>
+    </row>
+    <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4514,12 +4865,13 @@
       <c r="E84" s="1">
         <v>-4348000</v>
       </c>
-      <c r="L84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="M84" s="65"/>
-    </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F84" s="1"/>
+      <c r="M84" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="N84" s="57"/>
+    </row>
+    <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -4535,15 +4887,16 @@
       <c r="E85" s="1">
         <v>-659000</v>
       </c>
-      <c r="L85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M85" s="25">
+      <c r="F85" s="1"/>
+      <c r="M85" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="59">
         <f>E17</f>
         <v>1057000</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -4559,15 +4912,16 @@
       <c r="E86" s="1">
         <v>475000</v>
       </c>
-      <c r="L86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M86" s="25">
+      <c r="F86" s="1"/>
+      <c r="M86" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="N86" s="59">
         <f>E56</f>
         <v>3706000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>73</v>
       </c>
@@ -4583,15 +4937,16 @@
       <c r="E87" s="10">
         <v>156129000</v>
       </c>
-      <c r="L87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M87" s="25">
+      <c r="F87" s="10"/>
+      <c r="M87" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="59">
         <f>E61</f>
         <v>37748000</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -4607,51 +4962,53 @@
       <c r="E88" s="1">
         <v>-69941000</v>
       </c>
-      <c r="L88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M88" s="35">
-        <f>M85/(M86+M87)</f>
+      <c r="F88" s="1"/>
+      <c r="M88" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="N88" s="61">
+        <f>N85/(N86+N87)</f>
         <v>2.5498142519419117E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:E89" si="9">(-1*B88)/B3</f>
+        <v>0.13571104125161706</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.0167315552178242E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.8796546725596958E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.0989157952526045E-2</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="M89" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
-        <v>0.13571104125161706</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="5"/>
-        <v>7.0167315552178242E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="5"/>
-        <v>6.8796546725596958E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="5"/>
-        <v>9.0989157952526045E-2</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M89" s="25">
+      <c r="N89" s="59">
         <f>E27</f>
         <v>21191000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-27890000</v>
@@ -4659,39 +5016,41 @@
       <c r="E90" s="1">
         <v>-14549000</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="F90" s="1"/>
+      <c r="M90" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="25">
+      <c r="N90" s="59">
         <f>E25</f>
         <v>140746000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-9189000</v>
       </c>
-      <c r="L91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="M91" s="35">
-        <f>M89/M90</f>
+      <c r="F91" s="1"/>
+      <c r="M91" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="N91" s="61">
+        <f>N89/N90</f>
         <v>0.15056200531453826</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>77</v>
       </c>
@@ -4699,23 +5058,24 @@
         <v>421000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="M92" s="37">
-        <f>M88*(1-M91)</f>
+        <v>91</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="M92" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="N92" s="61">
+        <f>N88*(1-N91)</f>
         <v>2.1659091049899482E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -4731,12 +5091,13 @@
       <c r="E93" s="1">
         <v>27408000</v>
       </c>
-      <c r="L93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="M93" s="65"/>
-    </row>
-    <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F93" s="1"/>
+      <c r="M93" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N93" s="57"/>
+    </row>
+    <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -4752,14 +5113,16 @@
       <c r="E94" s="10">
         <v>-66271000</v>
       </c>
-      <c r="L94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M94" s="38">
-        <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F94" s="10"/>
+      <c r="M94" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="N94" s="62">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.857E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -4767,91 +5130,95 @@
         <v>-10000000</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1">
         <v>-333000000</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M95" s="39" cm="1">
-        <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="M95" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="N95" s="63" cm="1">
+        <f t="array" ref="N95">_FV(A1,"Beta")</f>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>321425000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="M96" s="38">
+        <v>91</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="M96" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="N96" s="62">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M97" s="37">
-        <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10983000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="M97" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="N97" s="61">
+        <f>(N94)+((N95)*(N96-N94))</f>
+        <v>0.1126209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1">
         <v>-400000000</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="M98" s="65"/>
-    </row>
-    <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="M98" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="N98" s="57"/>
+    </row>
+    <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -4867,15 +5234,16 @@
       <c r="E99" s="1">
         <v>-5307000</v>
       </c>
-      <c r="L99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="M99" s="25">
-        <f>M86+M87</f>
+      <c r="F99" s="1"/>
+      <c r="M99" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="N99" s="59">
+        <f>N86+N87</f>
         <v>41454000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>85</v>
       </c>
@@ -4891,15 +5259,16 @@
       <c r="E100" s="10">
         <v>-5307000</v>
       </c>
-      <c r="L100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="M100" s="35">
-        <f>M99/M103</f>
-        <v>5.1050615044458125E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F100" s="10"/>
+      <c r="M100" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="N100" s="61">
+        <f>N99/N103</f>
+        <v>4.3354913715931125E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -4915,15 +5284,16 @@
       <c r="E101" s="1">
         <v>1373000</v>
       </c>
-      <c r="L101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M101" s="40" cm="1">
-        <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8078722410</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F101" s="1"/>
+      <c r="M101" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="N101" s="64" cm="1">
+        <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
+        <v>9520091958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>87</v>
       </c>
@@ -4939,15 +5309,16 @@
       <c r="E102" s="10">
         <v>85924000</v>
       </c>
-      <c r="L102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M102" s="35">
-        <f>M101/M103</f>
-        <v>0.99489493849555422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F102" s="10"/>
+      <c r="M102" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="N102" s="61">
+        <f>N101/N103</f>
+        <v>0.99566450862840694</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -4963,15 +5334,16 @@
       <c r="E103" s="1">
         <v>203875000</v>
       </c>
-      <c r="L103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="M103" s="41">
-        <f>M99+M101</f>
-        <v>8120176410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+      <c r="M103" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="N103" s="65">
+        <f>N99+N101</f>
+        <v>9561545958</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -4987,240 +5359,270 @@
       <c r="E104" s="11">
         <v>289799000</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="F104" s="11"/>
+      <c r="M104" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N104" s="57"/>
+    </row>
+    <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f>(B22*(1-$Y$91))+B77+B88+B81</f>
+        <v>29444000</v>
+      </c>
+      <c r="C105" s="1">
+        <f>(C22*(1-$Y$91))+C77+C88+C81</f>
+        <v>50412000</v>
+      </c>
+      <c r="D105" s="1">
+        <f>(D22*(1-$Y$91))+D77+D88+D81</f>
+        <v>23827000</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-$Y$91))+E77+E88+E81</f>
+        <v>61910000</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="29">
+        <f>E105*(1+$Y$106)</f>
+        <v>61910000</v>
+      </c>
+      <c r="H105" s="29">
+        <f t="shared" ref="H105:K105" si="10">G105*(1+$Y$106)</f>
+        <v>61910000</v>
+      </c>
+      <c r="I105" s="29">
+        <f t="shared" si="10"/>
+        <v>61910000</v>
+      </c>
+      <c r="J105" s="29">
+        <f t="shared" si="10"/>
+        <v>61910000</v>
+      </c>
+      <c r="K105" s="29">
+        <f t="shared" si="10"/>
+        <v>61910000</v>
+      </c>
+      <c r="L105" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="M105" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" s="67">
+        <f>(N100*N92)+(N102*N97)</f>
+        <v>0.11222653586215234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.57097099732350487</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>1.2315104457602501</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>7.873887630324039E-2</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="54">
+        <v>3703000000</v>
+      </c>
+      <c r="H106" s="54">
+        <v>4133000000</v>
+      </c>
+      <c r="I106" s="54">
+        <v>4261000000</v>
+      </c>
+      <c r="J106" s="54">
+        <v>4630000000</v>
+      </c>
+      <c r="K106" s="54">
+        <v>5089000000</v>
+      </c>
+      <c r="L106" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="M106" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="N106" s="69">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.13773603017371397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>22791000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>35804000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>79897000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>86188000</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="31">
+        <f>K106*(1+N107)/(N108-N107)</f>
+        <v>59800896005.355682</v>
+      </c>
+      <c r="L107" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="M104" s="65"/>
-    </row>
-    <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.57097099732350487</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>1.2315104457602501</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>7.873887630324039E-2</v>
-      </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M105" s="27">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10937988208690687</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>22791000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>35804000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>79897000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>86188000</v>
-      </c>
-      <c r="F106" s="42">
-        <f>E106*(1+$M$106)</f>
-        <v>98059192.96861206</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>111565476.93014686</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>126932062.82694237</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>144415181.26248586</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>164306355.026398</v>
-      </c>
-      <c r="K106" s="43" t="s">
+      <c r="M107" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="N107" s="71">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="31">
+        <f t="shared" ref="G108:I108" si="11">G107+G106</f>
+        <v>3703000000</v>
+      </c>
+      <c r="H108" s="31">
+        <f t="shared" si="11"/>
+        <v>4133000000</v>
+      </c>
+      <c r="I108" s="31">
+        <f t="shared" si="11"/>
+        <v>4261000000</v>
+      </c>
+      <c r="J108" s="31">
+        <f>J107+J106</f>
+        <v>4630000000</v>
+      </c>
+      <c r="K108" s="31">
+        <f>K107+K106</f>
+        <v>64889896005.355682</v>
+      </c>
+      <c r="L108" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="M108" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="45">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.13773603017371397</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="46">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>1995902456.0925593</v>
-      </c>
-      <c r="K107" s="47" t="s">
+      <c r="N108" s="69">
+        <f>N105</f>
+        <v>0.11222653586215234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="H109" s="42"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>98059192.96861206</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>111565476.93014686</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>126932062.82694237</v>
-      </c>
-      <c r="I108" s="46">
-        <f>I107+I106</f>
-        <v>144415181.26248586</v>
-      </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>2160208811.1189575</v>
-      </c>
-      <c r="K108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="L108" s="50" t="s">
+      <c r="H110" s="28">
+        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
+        <v>50917969149.930084</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G111" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="M108" s="51">
-        <f>M105</f>
-        <v>0.10937988208690687</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G109" s="61"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G110" s="40">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1652918068.622721</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G111" s="40">
+      <c r="H111" s="28">
         <f>E40</f>
         <v>282383000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G112" s="40">
-        <f>M99</f>
+    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G112" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="28">
+        <f>N99</f>
         <v>41454000</v>
       </c>
     </row>
-    <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
+    <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G113" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H113" s="28">
+        <f>H110+H111-H112</f>
+        <v>51158898149.930084</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G114" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H114" s="34">
+        <f>E34*(1+(5*L16))</f>
+        <v>198260551.05984059</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G115" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H115" s="36">
+        <f>H113/H114</f>
+        <v>258.03871661028973</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G116" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G113" s="40">
-        <f>G110+G111-G112</f>
-        <v>1893847068.622721</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
+      <c r="H116" s="37" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>49.53</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G114" s="53">
-        <f>E34*(1+(5*K16))</f>
-        <v>198260551.05984059</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
+      <c r="H117" s="39">
+        <f>H115/H116-1</f>
+        <v>4.2097459440801481</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G115" s="55">
-        <f>G113/G114</f>
-        <v>9.5523141567941305</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="G116" s="56" cm="1">
-        <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>42.13</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G117" s="58">
-        <f>G115/G116-1</f>
-        <v>-0.77326574515086333</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="G118" s="59" t="str">
-        <f>IF(G115&gt;G116,"BUY","SELL")</f>
-        <v>SELL</v>
+      <c r="H118" s="40" t="str">
+        <f>IF(H115&gt;H116,"BUY","SELL")</f>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L98:M98"/>
-    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ALGM" display="ROIC.AI | ALGM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5232,9 +5634,10 @@
     <hyperlink ref="D74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/866291/000086629121000020/0000866291-21-000020-index.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/866291/000086629122000011/0000866291-22-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/866291/000086629122000011/0000866291-22-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:ALGM/explorer/revenue_proj/" xr:uid="{B6939F95-8E65-A24B-AE27-58B17D5207D9}"/>
+    <hyperlink ref="G1" r:id="rId10" display="https://finbox.com/NASDAQGS:ALGM/explorer/revenue_proj/" xr:uid="{B6939F95-8E65-A24B-AE27-58B17D5207D9}"/>
+    <hyperlink ref="L106" r:id="rId11" xr:uid="{A7BBDFEC-3B2D-FA42-985C-C7DB3C87473F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>